--- a/1. web_crawling+preprocessing/output/nstore_stat_df_2.xlsx
+++ b/1. web_crawling+preprocessing/output/nstore_stat_df_2.xlsx
@@ -253,6 +253,9 @@
     <t>부산광역시 동래구</t>
   </si>
   <si>
+    <t>부산광역시 부산진구</t>
+  </si>
+  <si>
     <t>부산광역시 북구</t>
   </si>
   <si>
@@ -436,6 +439,9 @@
     <t>충청북도 충주시</t>
   </si>
   <si>
+    <t>세종특별자치시 세종특별자치시</t>
+  </si>
+  <si>
     <t>제주특별자치도 서귀포시</t>
   </si>
   <si>
@@ -595,9 +601,6 @@
     <t>부산광역시 중구</t>
   </si>
   <si>
-    <t>부산광역시 진구</t>
-  </si>
-  <si>
     <t>인천광역시 강화군</t>
   </si>
   <si>
@@ -721,9 +724,6 @@
     <t>충청북도 증평군</t>
   </si>
   <si>
-    <t>세종특별자치시 세종특별자치시</t>
-  </si>
-  <si>
     <t>강원도</t>
   </si>
   <si>
@@ -952,6 +952,9 @@
     <t>동래구</t>
   </si>
   <si>
+    <t>부산진구</t>
+  </si>
+  <si>
     <t>사상구</t>
   </si>
   <si>
@@ -1253,9 +1256,6 @@
   </si>
   <si>
     <t>칠곡군</t>
-  </si>
-  <si>
-    <t>진구</t>
   </si>
   <si>
     <t>강화군</t>
@@ -3197,13 +3197,13 @@
         <v>12</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>21</v>
       </c>
       <c r="F39">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="G39" t="s">
         <v>49</v>
@@ -3615,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G50" t="s">
         <v>60</v>
@@ -3653,13 +3653,13 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G51" t="s">
         <v>61</v>
@@ -3691,13 +3691,13 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <v>5</v>
       </c>
       <c r="F52">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G52" t="s">
         <v>62</v>
@@ -4328,22 +4328,22 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>1.2</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="G69" t="s">
         <v>79</v>
@@ -4352,36 +4352,36 @@
         <v>243</v>
       </c>
       <c r="I69" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="J69">
-        <v>291132</v>
+        <v>357880</v>
       </c>
       <c r="K69">
-        <v>39.370091</v>
+        <v>29.666238</v>
       </c>
       <c r="L69">
-        <v>7394.750497274695</v>
+        <v>12063.54509796625</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F70">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G70" t="s">
         <v>80</v>
@@ -4390,36 +4390,36 @@
         <v>243</v>
       </c>
       <c r="I70" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J70">
-        <v>218094</v>
+        <v>291132</v>
       </c>
       <c r="K70">
-        <v>36.093426</v>
+        <v>39.370091</v>
       </c>
       <c r="L70">
-        <v>6042.485409946952</v>
+        <v>7394.750497274695</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>5</v>
       </c>
       <c r="F71">
-        <v>0.5555555555555556</v>
+        <v>1.25</v>
       </c>
       <c r="G71" t="s">
         <v>81</v>
@@ -4431,18 +4431,18 @@
         <v>313</v>
       </c>
       <c r="J71">
-        <v>321004</v>
+        <v>218094</v>
       </c>
       <c r="K71">
-        <v>41.769978</v>
+        <v>36.093426</v>
       </c>
       <c r="L71">
-        <v>7685.041155635753</v>
+        <v>6042.485409946952</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4451,13 +4451,13 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G72" t="s">
         <v>82</v>
@@ -4469,33 +4469,33 @@
         <v>314</v>
       </c>
       <c r="J72">
-        <v>209395</v>
+        <v>321004</v>
       </c>
       <c r="K72">
-        <v>12.098903</v>
+        <v>41.769978</v>
       </c>
       <c r="L72">
-        <v>17306.94096811918</v>
+        <v>7685.041155635753</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F73">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
         <v>83</v>
@@ -4507,71 +4507,71 @@
         <v>315</v>
       </c>
       <c r="J73">
-        <v>406102</v>
+        <v>209395</v>
       </c>
       <c r="K73">
-        <v>51.474858</v>
+        <v>12.098903</v>
       </c>
       <c r="L73">
-        <v>7889.327251762405</v>
+        <v>17306.94096811918</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
         <v>11</v>
       </c>
-      <c r="B74">
-        <v>7</v>
-      </c>
-      <c r="C74">
-        <v>11</v>
-      </c>
-      <c r="D74">
-        <v>8</v>
-      </c>
       <c r="E74">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>3.625</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G74" t="s">
         <v>84</v>
       </c>
       <c r="H74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I74" t="s">
         <v>316</v>
       </c>
       <c r="J74">
-        <v>545169</v>
+        <v>406102</v>
       </c>
       <c r="K74">
-        <v>39.501013</v>
+        <v>51.474858</v>
       </c>
       <c r="L74">
-        <v>13801.3928908608</v>
+        <v>7889.327251762405</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>8</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F75">
-        <v>1.25</v>
+        <v>3.625</v>
       </c>
       <c r="G75" t="s">
         <v>85</v>
@@ -4583,33 +4583,33 @@
         <v>317</v>
       </c>
       <c r="J75">
-        <v>436067</v>
+        <v>545169</v>
       </c>
       <c r="K75">
-        <v>24.590256</v>
+        <v>39.501013</v>
       </c>
       <c r="L75">
-        <v>17733.32493976476</v>
+        <v>13801.3928908608</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G76" t="s">
         <v>86</v>
@@ -4621,33 +4621,33 @@
         <v>318</v>
       </c>
       <c r="J76">
-        <v>313954</v>
+        <v>436067</v>
       </c>
       <c r="K76">
-        <v>23.600102</v>
+        <v>24.590256</v>
       </c>
       <c r="L76">
-        <v>13303.07809686585</v>
+        <v>17733.32493976476</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>1.076923076923077</v>
+        <v>1.75</v>
       </c>
       <c r="G77" t="s">
         <v>87</v>
@@ -4659,33 +4659,33 @@
         <v>319</v>
       </c>
       <c r="J77">
-        <v>591796</v>
+        <v>313954</v>
       </c>
       <c r="K77">
-        <v>41.436853</v>
+        <v>23.600102</v>
       </c>
       <c r="L77">
-        <v>14281.87608745288</v>
+        <v>13303.07809686585</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
         <v>4</v>
       </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
       <c r="D78">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E78">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F78">
-        <v>0.9</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="G78" t="s">
         <v>88</v>
@@ -4697,13 +4697,13 @@
         <v>320</v>
       </c>
       <c r="J78">
-        <v>500094</v>
+        <v>591796</v>
       </c>
       <c r="K78">
-        <v>29.568929</v>
+        <v>41.436853</v>
       </c>
       <c r="L78">
-        <v>16912.82088708725</v>
+        <v>14281.87608745288</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4711,19 +4711,19 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>10</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G79" t="s">
         <v>89</v>
@@ -4735,13 +4735,13 @@
         <v>321</v>
       </c>
       <c r="J79">
-        <v>351350</v>
+        <v>500094</v>
       </c>
       <c r="K79">
-        <v>17.062949</v>
+        <v>29.568929</v>
       </c>
       <c r="L79">
-        <v>20591.39952888566</v>
+        <v>16912.82088708725</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4749,19 +4749,19 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>1.285714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="G80" t="s">
         <v>90</v>
@@ -4773,33 +4773,33 @@
         <v>322</v>
       </c>
       <c r="J80">
-        <v>406664</v>
+        <v>351350</v>
       </c>
       <c r="K80">
-        <v>20.120106</v>
+        <v>17.062949</v>
       </c>
       <c r="L80">
-        <v>20211.82194566967</v>
+        <v>20591.39952888566</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="G81" t="s">
         <v>91</v>
@@ -4811,33 +4811,33 @@
         <v>323</v>
       </c>
       <c r="J81">
-        <v>232810</v>
+        <v>406664</v>
       </c>
       <c r="K81">
-        <v>13.02026</v>
+        <v>20.120106</v>
       </c>
       <c r="L81">
-        <v>17880.59531837306</v>
+        <v>20211.82194566967</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>1.222222222222222</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
         <v>92</v>
@@ -4849,13 +4849,13 @@
         <v>324</v>
       </c>
       <c r="J82">
-        <v>532905</v>
+        <v>232810</v>
       </c>
       <c r="K82">
-        <v>35.437538</v>
+        <v>13.02026</v>
       </c>
       <c r="L82">
-        <v>15037.86747262183</v>
+        <v>17880.59531837306</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4863,19 +4863,19 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F83">
-        <v>1.5</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="G83" t="s">
         <v>93</v>
@@ -4887,13 +4887,13 @@
         <v>325</v>
       </c>
       <c r="J83">
-        <v>333362</v>
+        <v>532905</v>
       </c>
       <c r="K83">
-        <v>20.660965</v>
+        <v>35.437538</v>
       </c>
       <c r="L83">
-        <v>16134.87075748882</v>
+        <v>15037.86747262183</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4901,19 +4901,19 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
         <v>6</v>
       </c>
-      <c r="E84">
-        <v>8</v>
-      </c>
       <c r="F84">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="G84" t="s">
         <v>94</v>
@@ -4925,13 +4925,13 @@
         <v>326</v>
       </c>
       <c r="J84">
-        <v>346194</v>
+        <v>333362</v>
       </c>
       <c r="K84">
-        <v>14.21536</v>
+        <v>20.660965</v>
       </c>
       <c r="L84">
-        <v>24353.51619656484</v>
+        <v>16134.87075748882</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4939,19 +4939,19 @@
         <v>3</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>3</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
       </c>
       <c r="D85">
         <v>6</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G85" t="s">
         <v>95</v>
@@ -4963,33 +4963,33 @@
         <v>327</v>
       </c>
       <c r="J85">
-        <v>395963</v>
+        <v>346194</v>
       </c>
       <c r="K85">
-        <v>16.354618</v>
+        <v>14.21536</v>
       </c>
       <c r="L85">
-        <v>24211.08215428817</v>
+        <v>24353.51619656484</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86">
-        <v>1.571428571428571</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G86" t="s">
         <v>96</v>
@@ -5001,13 +5001,13 @@
         <v>328</v>
       </c>
       <c r="J86">
-        <v>374035</v>
+        <v>395963</v>
       </c>
       <c r="K86">
-        <v>23.851343</v>
+        <v>16.354618</v>
       </c>
       <c r="L86">
-        <v>15681.92617078208</v>
+        <v>24211.08215428817</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5018,16 +5018,16 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G87" t="s">
         <v>97</v>
@@ -5039,33 +5039,33 @@
         <v>329</v>
       </c>
       <c r="J87">
-        <v>309397</v>
+        <v>374035</v>
       </c>
       <c r="K87">
-        <v>17.625638</v>
+        <v>23.851343</v>
       </c>
       <c r="L87">
-        <v>17553.80429349565</v>
+        <v>15681.92617078208</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <v>5</v>
       </c>
       <c r="E88">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="G88" t="s">
         <v>98</v>
@@ -5077,33 +5077,33 @@
         <v>330</v>
       </c>
       <c r="J88">
-        <v>430826</v>
+        <v>309397</v>
       </c>
       <c r="K88">
-        <v>46.983285</v>
+        <v>17.625638</v>
       </c>
       <c r="L88">
-        <v>9169.77176031859</v>
+        <v>17553.80429349565</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F89">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="G89" t="s">
         <v>99</v>
@@ -5115,33 +5115,33 @@
         <v>331</v>
       </c>
       <c r="J89">
-        <v>300889</v>
+        <v>430826</v>
       </c>
       <c r="K89">
-        <v>16.859343</v>
+        <v>46.983285</v>
       </c>
       <c r="L89">
-        <v>17847.01811927072</v>
+        <v>9169.77176031859</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
         <v>5</v>
       </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90">
-        <v>9</v>
-      </c>
       <c r="E90">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F90">
-        <v>1.111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="G90" t="s">
         <v>100</v>
@@ -5153,33 +5153,33 @@
         <v>332</v>
       </c>
       <c r="J90">
-        <v>442650</v>
+        <v>300889</v>
       </c>
       <c r="K90">
-        <v>24.574349</v>
+        <v>16.859343</v>
       </c>
       <c r="L90">
-        <v>18012.68469004001</v>
+        <v>17847.01811927072</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>1.1875</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="G91" t="s">
         <v>101</v>
@@ -5191,33 +5191,33 @@
         <v>333</v>
       </c>
       <c r="J91">
-        <v>675961</v>
+        <v>442650</v>
       </c>
       <c r="K91">
-        <v>33.872729</v>
+        <v>24.574349</v>
       </c>
       <c r="L91">
-        <v>19955.90612141112</v>
+        <v>18012.68469004001</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
         <v>6</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
       <c r="D92">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F92">
-        <v>1.833333333333333</v>
+        <v>1.1875</v>
       </c>
       <c r="G92" t="s">
         <v>102</v>
@@ -5229,33 +5229,33 @@
         <v>334</v>
       </c>
       <c r="J92">
-        <v>458165</v>
+        <v>675961</v>
       </c>
       <c r="K92">
-        <v>17.40571</v>
+        <v>33.872729</v>
       </c>
       <c r="L92">
-        <v>26322.68376297204</v>
+        <v>19955.90612141112</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
         <v>5</v>
       </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
       <c r="D93">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>1.625</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="G93" t="s">
         <v>103</v>
@@ -5267,33 +5267,33 @@
         <v>335</v>
       </c>
       <c r="J93">
-        <v>367678</v>
+        <v>458165</v>
       </c>
       <c r="K93">
-        <v>24.54852</v>
+        <v>17.40571</v>
       </c>
       <c r="L93">
-        <v>14977.60353781002</v>
+        <v>26322.68376297204</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94">
         <v>8</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>1.625</v>
       </c>
       <c r="G94" t="s">
         <v>104</v>
@@ -5305,13 +5305,13 @@
         <v>336</v>
       </c>
       <c r="J94">
-        <v>228670</v>
+        <v>367678</v>
       </c>
       <c r="K94">
-        <v>21.866384</v>
+        <v>24.54852</v>
       </c>
       <c r="L94">
-        <v>10457.60469586558</v>
+        <v>14977.60353781002</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5322,16 +5322,16 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>1.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
         <v>105</v>
@@ -5343,13 +5343,13 @@
         <v>337</v>
       </c>
       <c r="J95">
-        <v>480032</v>
+        <v>228670</v>
       </c>
       <c r="K95">
-        <v>29.711421</v>
+        <v>21.866384</v>
       </c>
       <c r="L95">
-        <v>16156.4807014784</v>
+        <v>10457.60469586558</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5357,19 +5357,19 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F96">
-        <v>3.25</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="G96" t="s">
         <v>106</v>
@@ -5381,24 +5381,24 @@
         <v>338</v>
       </c>
       <c r="J96">
-        <v>151290</v>
+        <v>480032</v>
       </c>
       <c r="K96">
-        <v>23.91328</v>
+        <v>29.711421</v>
       </c>
       <c r="L96">
-        <v>6326.610151346867</v>
+        <v>16156.4807014784</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -5416,36 +5416,36 @@
         <v>244</v>
       </c>
       <c r="I97" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="J97">
-        <v>126171</v>
+        <v>151290</v>
       </c>
       <c r="K97">
-        <v>9.959982999999999</v>
+        <v>23.91328</v>
       </c>
       <c r="L97">
-        <v>12667.79270607189</v>
+        <v>6326.610151346867</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F98">
-        <v>1.125</v>
+        <v>3.25</v>
       </c>
       <c r="G98" t="s">
         <v>108</v>
@@ -5454,74 +5454,74 @@
         <v>244</v>
       </c>
       <c r="I98" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="J98">
-        <v>397015</v>
+        <v>126171</v>
       </c>
       <c r="K98">
-        <v>18.496071</v>
+        <v>9.959982999999999</v>
       </c>
       <c r="L98">
-        <v>21464.82893583183</v>
+        <v>12667.79270607189</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>8</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="G99" t="s">
         <v>109</v>
       </c>
       <c r="H99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I99" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="J99">
-        <v>323819</v>
+        <v>397015</v>
       </c>
       <c r="K99">
-        <v>73.466522</v>
+        <v>18.496071</v>
       </c>
       <c r="L99">
-        <v>4407.708316449226</v>
+        <v>21464.82893583183</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F100">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="G100" t="s">
         <v>110</v>
@@ -5530,36 +5530,36 @@
         <v>245</v>
       </c>
       <c r="I100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J100">
-        <v>159656</v>
+        <v>323819</v>
       </c>
       <c r="K100">
-        <v>36.074686</v>
+        <v>73.466522</v>
       </c>
       <c r="L100">
-        <v>4425.70726741738</v>
+        <v>4407.708316449226</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G101" t="s">
         <v>111</v>
@@ -5568,16 +5568,16 @@
         <v>245</v>
       </c>
       <c r="I101" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J101">
-        <v>217796</v>
+        <v>159656</v>
       </c>
       <c r="K101">
-        <v>157.357088</v>
+        <v>36.074686</v>
       </c>
       <c r="L101">
-        <v>1384.087636395508</v>
+        <v>4425.70726741738</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5591,13 +5591,13 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102">
         <v>3</v>
       </c>
       <c r="F102">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G102" t="s">
         <v>112</v>
@@ -5606,16 +5606,16 @@
         <v>245</v>
       </c>
       <c r="I102" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J102">
-        <v>223581</v>
+        <v>217796</v>
       </c>
       <c r="K102">
-        <v>37.010509</v>
+        <v>157.357088</v>
       </c>
       <c r="L102">
-        <v>6041.013918506228</v>
+        <v>1384.087636395508</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5623,57 +5623,57 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F103">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="G103" t="s">
         <v>113</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I103" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="J103">
-        <v>303471</v>
+        <v>223581</v>
       </c>
       <c r="K103">
-        <v>45.56518</v>
+        <v>37.010509</v>
       </c>
       <c r="L103">
-        <v>6660.151457757876</v>
+        <v>6041.013918506228</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
         <v>4</v>
       </c>
-      <c r="D104">
-        <v>10</v>
-      </c>
-      <c r="E104">
-        <v>12</v>
-      </c>
       <c r="F104">
-        <v>1.2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G104" t="s">
         <v>114</v>
@@ -5685,30 +5685,33 @@
         <v>341</v>
       </c>
       <c r="J104">
-        <v>532704</v>
+        <v>303471</v>
       </c>
       <c r="K104">
-        <v>57.016644</v>
+        <v>45.56518</v>
       </c>
       <c r="L104">
-        <v>9342.956067354648</v>
+        <v>6660.151457757876</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
         <v>3</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>1.2</v>
       </c>
       <c r="G105" t="s">
         <v>115</v>
@@ -5720,33 +5723,33 @@
         <v>342</v>
       </c>
       <c r="J105">
-        <v>408862</v>
+        <v>532704</v>
       </c>
       <c r="K105">
-        <v>24.83503</v>
+        <v>57.016644</v>
       </c>
       <c r="L105">
-        <v>16463.11681524041</v>
+        <v>9342.956067354648</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>14</v>
+      </c>
+      <c r="E106">
         <v>5</v>
       </c>
-      <c r="D106">
-        <v>9</v>
-      </c>
-      <c r="E106">
-        <v>8</v>
-      </c>
       <c r="F106">
-        <v>0.8888888888888888</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="G106" t="s">
         <v>116</v>
@@ -5758,33 +5761,33 @@
         <v>343</v>
       </c>
       <c r="J106">
-        <v>511577</v>
+        <v>408862</v>
       </c>
       <c r="K106">
-        <v>32.008762</v>
+        <v>24.83503</v>
       </c>
       <c r="L106">
-        <v>15982.4050677124</v>
+        <v>16463.11681524041</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F107">
-        <v>0.4</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -5793,36 +5796,36 @@
         <v>246</v>
       </c>
       <c r="I107" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="J107">
-        <v>544556</v>
+        <v>511577</v>
       </c>
       <c r="K107">
-        <v>117.08739</v>
+        <v>32.008762</v>
       </c>
       <c r="L107">
-        <v>4650.850958416615</v>
+        <v>15982.4050677124</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F108">
-        <v>1.25</v>
+        <v>0.4</v>
       </c>
       <c r="G108" t="s">
         <v>118</v>
@@ -5831,36 +5834,36 @@
         <v>246</v>
       </c>
       <c r="I108" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="J108">
-        <v>366550</v>
+        <v>544556</v>
       </c>
       <c r="K108">
-        <v>54.947866</v>
+        <v>117.08739</v>
       </c>
       <c r="L108">
-        <v>6670.868710351736</v>
+        <v>4650.850958416615</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>0.7777777777777778</v>
+        <v>1.25</v>
       </c>
       <c r="G109" t="s">
         <v>119</v>
@@ -5869,74 +5872,74 @@
         <v>246</v>
       </c>
       <c r="I109" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="J109">
-        <v>135135</v>
+        <v>366550</v>
       </c>
       <c r="K109">
-        <v>140.2869</v>
+        <v>54.947866</v>
       </c>
       <c r="L109">
-        <v>963.2759723110283</v>
+        <v>6670.868710351736</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G110" t="s">
         <v>120</v>
       </c>
       <c r="H110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I110" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="J110">
-        <v>156750</v>
+        <v>135135</v>
       </c>
       <c r="K110">
-        <v>463.087471</v>
+        <v>140.2869</v>
       </c>
       <c r="L110">
-        <v>338.4889676706455</v>
+        <v>963.2759723110283</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F111">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
         <v>121</v>
@@ -5948,13 +5951,13 @@
         <v>346</v>
       </c>
       <c r="J111">
-        <v>114664</v>
+        <v>156750</v>
       </c>
       <c r="K111">
-        <v>608.403003</v>
+        <v>463.087471</v>
       </c>
       <c r="L111">
-        <v>188.4671828288132</v>
+        <v>338.4889676706455</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5962,19 +5965,19 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G112" t="s">
         <v>122</v>
@@ -5986,13 +5989,13 @@
         <v>347</v>
       </c>
       <c r="J112">
-        <v>229861</v>
+        <v>114664</v>
       </c>
       <c r="K112">
-        <v>51.620811</v>
+        <v>608.403003</v>
       </c>
       <c r="L112">
-        <v>4452.87463616176</v>
+        <v>188.4671828288132</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6000,19 +6003,19 @@
         <v>1</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G113" t="s">
         <v>123</v>
@@ -6024,13 +6027,13 @@
         <v>348</v>
       </c>
       <c r="J113">
-        <v>81105</v>
+        <v>229861</v>
       </c>
       <c r="K113">
-        <v>449.711044</v>
+        <v>51.620811</v>
       </c>
       <c r="L113">
-        <v>180.3491399246134</v>
+        <v>4452.87463616176</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6038,19 +6041,19 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G114" t="s">
         <v>124</v>
@@ -6062,13 +6065,13 @@
         <v>349</v>
       </c>
       <c r="J114">
-        <v>279598</v>
+        <v>81105</v>
       </c>
       <c r="K114">
-        <v>911.055038</v>
+        <v>449.711044</v>
       </c>
       <c r="L114">
-        <v>306.8947410836885</v>
+        <v>180.3491399246134</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6076,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -6085,10 +6088,10 @@
         <v>10</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G115" t="s">
         <v>125</v>
@@ -6100,56 +6103,56 @@
         <v>350</v>
       </c>
       <c r="J115">
-        <v>282786</v>
+        <v>279598</v>
       </c>
       <c r="K115">
-        <v>512.0842720000001</v>
+        <v>911.055038</v>
       </c>
       <c r="L115">
-        <v>552.2255133819067</v>
+        <v>306.8947410836885</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
         <v>3</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
-        <v>7</v>
-      </c>
-      <c r="E116">
-        <v>5</v>
-      </c>
       <c r="F116">
-        <v>0.7142857142857143</v>
+        <v>0.3</v>
       </c>
       <c r="G116" t="s">
         <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I116" t="s">
         <v>351</v>
       </c>
       <c r="J116">
-        <v>270131</v>
+        <v>282786</v>
       </c>
       <c r="K116">
-        <v>396.683442</v>
+        <v>512.0842720000001</v>
       </c>
       <c r="L116">
-        <v>680.9737221146729</v>
+        <v>552.2255133819067</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6158,13 +6161,13 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F117">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G117" t="s">
         <v>127</v>
@@ -6176,33 +6179,33 @@
         <v>352</v>
       </c>
       <c r="J117">
-        <v>287771</v>
+        <v>270131</v>
       </c>
       <c r="K117">
-        <v>506.537047</v>
+        <v>396.683442</v>
       </c>
       <c r="L117">
-        <v>568.1144186873265</v>
+        <v>680.9737221146729</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>0.6521739130434783</v>
+        <v>0.5</v>
       </c>
       <c r="G118" t="s">
         <v>128</v>
@@ -6214,33 +6217,33 @@
         <v>353</v>
       </c>
       <c r="J118">
-        <v>654394</v>
+        <v>287771</v>
       </c>
       <c r="K118">
-        <v>206.040841</v>
+        <v>506.537047</v>
       </c>
       <c r="L118">
-        <v>3176.040229810555</v>
+        <v>568.1144186873265</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G119" t="s">
         <v>129</v>
@@ -6252,13 +6255,13 @@
         <v>354</v>
       </c>
       <c r="J119">
-        <v>110541</v>
+        <v>654394</v>
       </c>
       <c r="K119">
-        <v>693.039121</v>
+        <v>206.040841</v>
       </c>
       <c r="L119">
-        <v>159.50181836849</v>
+        <v>3176.040229810555</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6269,34 +6272,34 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F120">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G120" t="s">
         <v>130</v>
       </c>
       <c r="H120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I120" t="s">
         <v>355</v>
       </c>
       <c r="J120">
-        <v>489405</v>
+        <v>110541</v>
       </c>
       <c r="K120">
-        <v>978.668959</v>
+        <v>693.039121</v>
       </c>
       <c r="L120">
-        <v>500.072057562827</v>
+        <v>159.50181836849</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6304,16 +6307,16 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F121">
         <v>0.6</v>
@@ -6322,19 +6325,19 @@
         <v>131</v>
       </c>
       <c r="H121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I121" t="s">
         <v>356</v>
       </c>
       <c r="J121">
-        <v>167042</v>
+        <v>489405</v>
       </c>
       <c r="K121">
-        <v>705.424109</v>
+        <v>978.668959</v>
       </c>
       <c r="L121">
-        <v>236.7965566654598</v>
+        <v>500.072057562827</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6342,19 +6345,19 @@
         <v>1</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
         <v>3</v>
       </c>
-      <c r="E122">
-        <v>2</v>
-      </c>
       <c r="F122">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G122" t="s">
         <v>132</v>
@@ -6366,13 +6369,13 @@
         <v>357</v>
       </c>
       <c r="J122">
-        <v>101114</v>
+        <v>167042</v>
       </c>
       <c r="K122">
-        <v>586.558277</v>
+        <v>705.424109</v>
       </c>
       <c r="L122">
-        <v>172.3852581488676</v>
+        <v>236.7965566654598</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6386,13 +6389,13 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123">
-        <v>0.2857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G123" t="s">
         <v>133</v>
@@ -6404,33 +6407,33 @@
         <v>358</v>
       </c>
       <c r="J123">
-        <v>174690</v>
+        <v>101114</v>
       </c>
       <c r="K123">
-        <v>742.026668</v>
+        <v>586.558277</v>
       </c>
       <c r="L123">
-        <v>235.4228055857421</v>
+        <v>172.3852581488676</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>0.5454545454545454</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G124" t="s">
         <v>134</v>
@@ -6442,33 +6445,33 @@
         <v>359</v>
       </c>
       <c r="J124">
-        <v>652258</v>
+        <v>174690</v>
       </c>
       <c r="K124">
-        <v>636.082715</v>
+        <v>742.026668</v>
       </c>
       <c r="L124">
-        <v>1025.429530811885</v>
+        <v>235.4228055857421</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F125">
-        <v>0.6666666666666666</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G125" t="s">
         <v>135</v>
@@ -6480,13 +6483,13 @@
         <v>360</v>
       </c>
       <c r="J125">
-        <v>100423</v>
+        <v>652258</v>
       </c>
       <c r="K125">
-        <v>446.698483</v>
+        <v>636.082715</v>
       </c>
       <c r="L125">
-        <v>224.8115984759232</v>
+        <v>1025.429530811885</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6497,34 +6500,34 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126">
-        <v>0.2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G126" t="s">
         <v>136</v>
       </c>
       <c r="H126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I126" t="s">
         <v>361</v>
       </c>
       <c r="J126">
-        <v>94982</v>
+        <v>100423</v>
       </c>
       <c r="K126">
-        <v>520.1821660000001</v>
+        <v>446.698483</v>
       </c>
       <c r="L126">
-        <v>182.5937262139817</v>
+        <v>224.8115984759232</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6538,13 +6541,13 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G127" t="s">
         <v>137</v>
@@ -6556,33 +6559,33 @@
         <v>362</v>
       </c>
       <c r="J127">
-        <v>81084</v>
+        <v>94982</v>
       </c>
       <c r="K127">
-        <v>407.303348</v>
+        <v>520.1821660000001</v>
       </c>
       <c r="L127">
-        <v>199.0752111372283</v>
+        <v>182.5937262139817</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G128" t="s">
         <v>138</v>
@@ -6594,33 +6597,33 @@
         <v>363</v>
       </c>
       <c r="J128">
-        <v>839566</v>
+        <v>81084</v>
       </c>
       <c r="K128">
-        <v>940.844524</v>
+        <v>407.303348</v>
       </c>
       <c r="L128">
-        <v>892.3536020920711</v>
+        <v>199.0752111372283</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F129">
-        <v>0.25</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G129" t="s">
         <v>139</v>
@@ -6632,51 +6635,51 @@
         <v>364</v>
       </c>
       <c r="J129">
-        <v>210737</v>
+        <v>839566</v>
       </c>
       <c r="K129">
-        <v>983.4775550000001</v>
+        <v>940.844524</v>
       </c>
       <c r="L129">
-        <v>214.2773863303876</v>
+        <v>892.3536020920711</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G130" t="s">
         <v>140</v>
       </c>
       <c r="H130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I130" t="s">
         <v>365</v>
       </c>
       <c r="J130">
-        <v>181584</v>
+        <v>210737</v>
       </c>
       <c r="K130">
-        <v>871.558431</v>
+        <v>983.4775550000001</v>
       </c>
       <c r="L130">
-        <v>208.3440347099344</v>
+        <v>214.2773863303876</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6687,34 +6690,34 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="G131" t="s">
         <v>141</v>
       </c>
       <c r="H131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I131" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="J131">
-        <v>314395</v>
+        <v>340575</v>
       </c>
       <c r="K131">
-        <v>542.795756</v>
+        <v>464.94968</v>
       </c>
       <c r="L131">
-        <v>579.2141823599667</v>
+        <v>732.4986222164945</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6722,37 +6725,37 @@
         <v>0</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F132">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G132" t="s">
         <v>142</v>
       </c>
       <c r="H132" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I132" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J132">
-        <v>90522</v>
+        <v>181584</v>
       </c>
       <c r="K132">
-        <v>180.20198</v>
+        <v>871.558431</v>
       </c>
       <c r="L132">
-        <v>502.3363228306371</v>
+        <v>208.3440347099344</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6760,37 +6763,37 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G133" t="s">
         <v>143</v>
       </c>
       <c r="H133" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I133" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J133">
-        <v>161153</v>
+        <v>314395</v>
       </c>
       <c r="K133">
-        <v>53.987611</v>
+        <v>542.795756</v>
       </c>
       <c r="L133">
-        <v>2984.999651123662</v>
+        <v>579.2141823599667</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6816,19 +6819,19 @@
         <v>144</v>
       </c>
       <c r="H134" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I134" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J134">
-        <v>105552</v>
+        <v>90522</v>
       </c>
       <c r="K134">
-        <v>798.6712240000001</v>
+        <v>180.20198</v>
       </c>
       <c r="L134">
-        <v>132.1595129862848</v>
+        <v>502.3363228306371</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6842,31 +6845,31 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G135" t="s">
         <v>145</v>
       </c>
       <c r="H135" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I135" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J135">
-        <v>131404</v>
+        <v>161153</v>
       </c>
       <c r="K135">
-        <v>239.860468</v>
+        <v>53.987611</v>
       </c>
       <c r="L135">
-        <v>547.8351689032809</v>
+        <v>2984.999651123662</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6880,31 +6883,31 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G136" t="s">
         <v>146</v>
       </c>
       <c r="H136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I136" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J136">
-        <v>102470</v>
+        <v>105552</v>
       </c>
       <c r="K136">
-        <v>919.20514</v>
+        <v>798.6712240000001</v>
       </c>
       <c r="L136">
-        <v>111.4767482697061</v>
+        <v>132.1595129862848</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6915,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137">
         <v>0.3333333333333333</v>
@@ -6930,19 +6933,19 @@
         <v>147</v>
       </c>
       <c r="H137" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I137" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J137">
-        <v>177031</v>
+        <v>131404</v>
       </c>
       <c r="K137">
-        <v>68.713031</v>
+        <v>239.860468</v>
       </c>
       <c r="L137">
-        <v>2576.381763744347</v>
+        <v>547.8351689032809</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6956,31 +6959,31 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G138" t="s">
         <v>148</v>
       </c>
       <c r="H138" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I138" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="J138">
-        <v>129566</v>
+        <v>102470</v>
       </c>
       <c r="K138">
-        <v>181.494645</v>
+        <v>919.20514</v>
       </c>
       <c r="L138">
-        <v>713.8833214610822</v>
+        <v>111.4767482697061</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6994,31 +6997,31 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G139" t="s">
         <v>149</v>
       </c>
       <c r="H139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I139" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="J139">
-        <v>88165</v>
+        <v>177031</v>
       </c>
       <c r="K139">
-        <v>9.865235</v>
+        <v>68.713031</v>
       </c>
       <c r="L139">
-        <v>8936.938653767498</v>
+        <v>2576.381763744347</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7029,16 +7032,16 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>4</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G140" t="s">
         <v>150</v>
@@ -7047,16 +7050,16 @@
         <v>243</v>
       </c>
       <c r="I140" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="J140">
-        <v>176148</v>
+        <v>129566</v>
       </c>
       <c r="K140">
-        <v>10.212429</v>
+        <v>181.494645</v>
       </c>
       <c r="L140">
-        <v>17248.39408920248</v>
+        <v>713.8833214610822</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7067,16 +7070,16 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G141" t="s">
         <v>151</v>
@@ -7085,16 +7088,16 @@
         <v>243</v>
       </c>
       <c r="I141" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="J141">
-        <v>116711</v>
+        <v>88165</v>
       </c>
       <c r="K141">
-        <v>14.199595</v>
+        <v>9.865235</v>
       </c>
       <c r="L141">
-        <v>8219.318931279378</v>
+        <v>8936.938653767498</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7105,34 +7108,34 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F142">
-        <v>0.1428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="G142" t="s">
         <v>152</v>
       </c>
       <c r="H142" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I142" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J142">
-        <v>223167</v>
+        <v>176148</v>
       </c>
       <c r="K142">
-        <v>758.13001</v>
+        <v>10.212429</v>
       </c>
       <c r="L142">
-        <v>294.3650786228605</v>
+        <v>17248.39408920248</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7146,31 +7149,31 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="s">
         <v>153</v>
       </c>
       <c r="H143" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I143" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J143">
-        <v>118842</v>
+        <v>116711</v>
       </c>
       <c r="K143">
-        <v>555.580413</v>
+        <v>14.199595</v>
       </c>
       <c r="L143">
-        <v>213.9060291169768</v>
+        <v>8219.318931279378</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7184,31 +7187,31 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G144" t="s">
         <v>154</v>
       </c>
       <c r="H144" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I144" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J144">
-        <v>134617</v>
+        <v>223167</v>
       </c>
       <c r="K144">
-        <v>883.422112</v>
+        <v>758.13001</v>
       </c>
       <c r="L144">
-        <v>152.3812888215323</v>
+        <v>294.3650786228605</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7219,34 +7222,34 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G145" t="s">
         <v>155</v>
       </c>
       <c r="H145" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="I145" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J145">
-        <v>27260</v>
+        <v>118842</v>
       </c>
       <c r="K145">
-        <v>660.707506</v>
+        <v>555.580413</v>
       </c>
       <c r="L145">
-        <v>41.25880174274878</v>
+        <v>213.9060291169768</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7257,34 +7260,34 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="s">
         <v>156</v>
       </c>
       <c r="H146" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="I146" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J146">
-        <v>67228</v>
+        <v>134617</v>
       </c>
       <c r="K146">
-        <v>1187.839038</v>
+        <v>883.422112</v>
       </c>
       <c r="L146">
-        <v>56.59689389666278</v>
+        <v>152.3812888215323</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7313,16 +7316,16 @@
         <v>236</v>
       </c>
       <c r="I147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J147">
-        <v>22764</v>
+        <v>27260</v>
       </c>
       <c r="K147">
-        <v>661.819106</v>
+        <v>660.707506</v>
       </c>
       <c r="L147">
-        <v>34.39610581444894</v>
+        <v>41.25880174274878</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7351,16 +7354,16 @@
         <v>236</v>
       </c>
       <c r="I148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J148">
-        <v>27726</v>
+        <v>67228</v>
       </c>
       <c r="K148">
-        <v>630.079403</v>
+        <v>1187.839038</v>
       </c>
       <c r="L148">
-        <v>44.00397770183896</v>
+        <v>56.59689389666278</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7389,16 +7392,16 @@
         <v>236</v>
       </c>
       <c r="I149" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J149">
-        <v>39127</v>
+        <v>22764</v>
       </c>
       <c r="K149">
-        <v>1127.289702</v>
+        <v>661.819106</v>
       </c>
       <c r="L149">
-        <v>34.70891282922409</v>
+        <v>34.39610581444894</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7412,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7427,16 +7430,16 @@
         <v>236</v>
       </c>
       <c r="I150" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J150">
-        <v>31672</v>
+        <v>27726</v>
       </c>
       <c r="K150">
-        <v>1644.967141</v>
+        <v>630.079403</v>
       </c>
       <c r="L150">
-        <v>19.25388003844631</v>
+        <v>44.00397770183896</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7465,16 +7468,16 @@
         <v>236</v>
       </c>
       <c r="I151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J151">
-        <v>37271</v>
+        <v>39127</v>
       </c>
       <c r="K151">
-        <v>1219.777976</v>
+        <v>1127.289702</v>
       </c>
       <c r="L151">
-        <v>30.55556071132079</v>
+        <v>34.70891282922409</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7488,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7503,16 +7506,16 @@
         <v>236</v>
       </c>
       <c r="I152" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J152">
-        <v>45584</v>
+        <v>31672</v>
       </c>
       <c r="K152">
-        <v>889.682311</v>
+        <v>1644.967141</v>
       </c>
       <c r="L152">
-        <v>51.23626651491332</v>
+        <v>19.25388003844631</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7541,16 +7544,16 @@
         <v>236</v>
       </c>
       <c r="I153" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J153">
-        <v>43866</v>
+        <v>37271</v>
       </c>
       <c r="K153">
-        <v>303.521188</v>
+        <v>1219.777976</v>
       </c>
       <c r="L153">
-        <v>144.5236831374026</v>
+        <v>30.55556071132079</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7564,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7579,16 +7582,16 @@
         <v>236</v>
       </c>
       <c r="I154" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J154">
-        <v>42106</v>
+        <v>45584</v>
       </c>
       <c r="K154">
-        <v>1463.928054</v>
+        <v>889.682311</v>
       </c>
       <c r="L154">
-        <v>28.76234244227415</v>
+        <v>51.23626651491332</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7602,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7617,16 +7620,16 @@
         <v>236</v>
       </c>
       <c r="I155" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J155">
-        <v>24917</v>
+        <v>43866</v>
       </c>
       <c r="K155">
-        <v>908.931856</v>
+        <v>303.521188</v>
       </c>
       <c r="L155">
-        <v>27.41349622143731</v>
+        <v>144.5236831374026</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7640,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7655,16 +7658,16 @@
         <v>236</v>
       </c>
       <c r="I156" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J156">
-        <v>46575</v>
+        <v>42106</v>
       </c>
       <c r="K156">
-        <v>998.066556</v>
+        <v>1463.928054</v>
       </c>
       <c r="L156">
-        <v>46.66522459850864</v>
+        <v>28.76234244227415</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7678,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7690,19 +7693,19 @@
         <v>167</v>
       </c>
       <c r="H157" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J157">
-        <v>62415</v>
+        <v>24917</v>
       </c>
       <c r="K157">
-        <v>843.690575</v>
+        <v>908.931856</v>
       </c>
       <c r="L157">
-        <v>73.97854361476067</v>
+        <v>27.41349622143731</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7716,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7728,19 +7731,19 @@
         <v>168</v>
       </c>
       <c r="H158" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I158" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J158">
-        <v>111083</v>
+        <v>46575</v>
       </c>
       <c r="K158">
-        <v>608.298372</v>
+        <v>998.066556</v>
       </c>
       <c r="L158">
-        <v>182.6126866570013</v>
+        <v>46.66522459850864</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7754,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7769,16 +7772,16 @@
         <v>237</v>
       </c>
       <c r="I159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J159">
-        <v>43824</v>
+        <v>62415</v>
       </c>
       <c r="K159">
-        <v>676.318066</v>
+        <v>843.690575</v>
       </c>
       <c r="L159">
-        <v>64.79791418140233</v>
+        <v>73.97854361476067</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7792,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7804,19 +7807,19 @@
         <v>170</v>
       </c>
       <c r="H160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I160" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J160">
-        <v>62179</v>
+        <v>111083</v>
       </c>
       <c r="K160">
-        <v>803.312949</v>
+        <v>608.298372</v>
       </c>
       <c r="L160">
-        <v>77.40320889561559</v>
+        <v>182.6126866570013</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7842,19 +7845,19 @@
         <v>171</v>
       </c>
       <c r="H161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I161" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="J161">
-        <v>52276</v>
+        <v>43824</v>
       </c>
       <c r="K161">
-        <v>517.957151</v>
+        <v>676.318066</v>
       </c>
       <c r="L161">
-        <v>100.9272676302909</v>
+        <v>64.79791418140233</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7886,13 +7889,13 @@
         <v>394</v>
       </c>
       <c r="J162">
-        <v>43622</v>
+        <v>62179</v>
       </c>
       <c r="K162">
-        <v>357.545659</v>
+        <v>803.312949</v>
       </c>
       <c r="L162">
-        <v>122.0039983760508</v>
+        <v>77.40320889561559</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7921,16 +7924,16 @@
         <v>238</v>
       </c>
       <c r="I163" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="J163">
-        <v>35417</v>
+        <v>52276</v>
       </c>
       <c r="K163">
-        <v>794.604515</v>
+        <v>517.957151</v>
       </c>
       <c r="L163">
-        <v>44.57185849239732</v>
+        <v>100.9272676302909</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7959,16 +7962,16 @@
         <v>238</v>
       </c>
       <c r="I164" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J164">
-        <v>27168</v>
+        <v>43622</v>
       </c>
       <c r="K164">
-        <v>482.91083</v>
+        <v>357.545659</v>
       </c>
       <c r="L164">
-        <v>56.25883354075948</v>
+        <v>122.0039983760508</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7982,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7997,16 +8000,16 @@
         <v>238</v>
       </c>
       <c r="I165" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J165">
-        <v>62331</v>
+        <v>35417</v>
       </c>
       <c r="K165">
-        <v>532.830708</v>
+        <v>794.604515</v>
       </c>
       <c r="L165">
-        <v>116.9808704043386</v>
+        <v>44.57185849239732</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8035,16 +8038,16 @@
         <v>238</v>
       </c>
       <c r="I166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J166">
-        <v>46574</v>
+        <v>27168</v>
       </c>
       <c r="K166">
-        <v>675.236982</v>
+        <v>482.91083</v>
       </c>
       <c r="L166">
-        <v>68.9743027137693</v>
+        <v>56.25883354075948</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8058,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -8073,16 +8076,16 @@
         <v>238</v>
       </c>
       <c r="I167" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J167">
-        <v>65700</v>
+        <v>62331</v>
       </c>
       <c r="K167">
-        <v>416.60201</v>
+        <v>532.830708</v>
       </c>
       <c r="L167">
-        <v>157.7044719491392</v>
+        <v>116.9808704043386</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8111,16 +8114,16 @@
         <v>238</v>
       </c>
       <c r="I168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J168">
-        <v>39637</v>
+        <v>46574</v>
       </c>
       <c r="K168">
-        <v>725.485214</v>
+        <v>675.236982</v>
       </c>
       <c r="L168">
-        <v>54.63515897375684</v>
+        <v>68.9743027137693</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8149,16 +8152,16 @@
         <v>238</v>
       </c>
       <c r="I169" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J169">
-        <v>45204</v>
+        <v>65700</v>
       </c>
       <c r="K169">
-        <v>983.507159</v>
+        <v>416.60201</v>
       </c>
       <c r="L169">
-        <v>45.96204469519271</v>
+        <v>157.7044719491392</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8184,19 +8187,19 @@
         <v>180</v>
       </c>
       <c r="H170" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I170" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J170">
-        <v>32373</v>
+        <v>39637</v>
       </c>
       <c r="K170">
-        <v>384.059802</v>
+        <v>725.485214</v>
       </c>
       <c r="L170">
-        <v>84.29156040652232</v>
+        <v>54.63515897375684</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8210,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -8222,19 +8225,19 @@
         <v>181</v>
       </c>
       <c r="H171" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I171" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J171">
-        <v>72242</v>
+        <v>45204</v>
       </c>
       <c r="K171">
-        <v>911.902545</v>
+        <v>983.507159</v>
       </c>
       <c r="L171">
-        <v>79.22118475938676</v>
+        <v>45.96204469519271</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8263,16 +8266,16 @@
         <v>239</v>
       </c>
       <c r="I172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J172">
-        <v>32150</v>
+        <v>32373</v>
       </c>
       <c r="K172">
-        <v>1202.034344</v>
+        <v>384.059802</v>
       </c>
       <c r="L172">
-        <v>26.74632398024062</v>
+        <v>84.29156040652232</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8286,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -8301,16 +8304,16 @@
         <v>239</v>
       </c>
       <c r="I173" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J173">
-        <v>44015</v>
+        <v>72242</v>
       </c>
       <c r="K173">
-        <v>616.106444</v>
+        <v>911.902545</v>
       </c>
       <c r="L173">
-        <v>71.44057723895516</v>
+        <v>79.22118475938676</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8339,16 +8342,16 @@
         <v>239</v>
       </c>
       <c r="I174" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J174">
-        <v>37361</v>
+        <v>32150</v>
       </c>
       <c r="K174">
-        <v>741.220163</v>
+        <v>1202.034344</v>
       </c>
       <c r="L174">
-        <v>50.40472705003844</v>
+        <v>26.74632398024062</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8377,16 +8380,16 @@
         <v>239</v>
       </c>
       <c r="I175" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J175">
-        <v>55100</v>
+        <v>44015</v>
       </c>
       <c r="K175">
-        <v>661.483887</v>
+        <v>616.106444</v>
       </c>
       <c r="L175">
-        <v>83.29756942363737</v>
+        <v>71.44057723895516</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8415,16 +8418,16 @@
         <v>239</v>
       </c>
       <c r="I176" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J176">
-        <v>9617</v>
+        <v>37361</v>
       </c>
       <c r="K176">
-        <v>72.94220300000001</v>
+        <v>741.220163</v>
       </c>
       <c r="L176">
-        <v>131.8441122487074</v>
+        <v>50.40472705003844</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8453,16 +8456,16 @@
         <v>239</v>
       </c>
       <c r="I177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J177">
-        <v>49314</v>
+        <v>55100</v>
       </c>
       <c r="K177">
-        <v>990.043224</v>
+        <v>661.483887</v>
       </c>
       <c r="L177">
-        <v>49.80994647967006</v>
+        <v>83.29756942363737</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8491,16 +8494,16 @@
         <v>239</v>
       </c>
       <c r="I178" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J178">
-        <v>52595</v>
+        <v>9617</v>
       </c>
       <c r="K178">
-        <v>1174.734216</v>
+        <v>72.94220300000001</v>
       </c>
       <c r="L178">
-        <v>44.77182947738367</v>
+        <v>131.8441122487074</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8529,16 +8532,16 @@
         <v>239</v>
       </c>
       <c r="I179" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J179">
-        <v>42910</v>
+        <v>49314</v>
       </c>
       <c r="K179">
-        <v>693.810304</v>
+        <v>990.043224</v>
       </c>
       <c r="L179">
-        <v>61.84687623203705</v>
+        <v>49.80994647967006</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -8567,16 +8570,16 @@
         <v>239</v>
       </c>
       <c r="I180" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J180">
-        <v>117047</v>
+        <v>52595</v>
       </c>
       <c r="K180">
-        <v>450.937034</v>
+        <v>1174.734216</v>
       </c>
       <c r="L180">
-        <v>259.5639549977614</v>
+        <v>44.77182947738367</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8590,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -8602,19 +8605,19 @@
         <v>191</v>
       </c>
       <c r="H181" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I181" t="s">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="J181">
-        <v>108229</v>
+        <v>42910</v>
       </c>
       <c r="K181">
-        <v>13.979612</v>
+        <v>693.810304</v>
       </c>
       <c r="L181">
-        <v>7741.917300709061</v>
+        <v>61.84687623203705</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8628,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -8640,19 +8643,19 @@
         <v>192</v>
       </c>
       <c r="H182" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I182" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="J182">
-        <v>41910</v>
+        <v>117047</v>
       </c>
       <c r="K182">
-        <v>2.825782</v>
+        <v>450.937034</v>
       </c>
       <c r="L182">
-        <v>14831.29271826348</v>
+        <v>259.5639549977614</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8681,16 +8684,16 @@
         <v>243</v>
       </c>
       <c r="I183" t="s">
-        <v>413</v>
+        <v>303</v>
       </c>
       <c r="J183">
-        <v>357880</v>
+        <v>108229</v>
       </c>
       <c r="K183">
-        <v>29.666238</v>
+        <v>13.979612</v>
       </c>
       <c r="L183">
-        <v>12063.54509796625</v>
+        <v>7741.917300709061</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8704,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -8716,19 +8719,19 @@
         <v>194</v>
       </c>
       <c r="H184" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I184" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="J184">
-        <v>69178</v>
+        <v>41910</v>
       </c>
       <c r="K184">
-        <v>411.411035</v>
+        <v>2.825782</v>
       </c>
       <c r="L184">
-        <v>168.1481392447337</v>
+        <v>14831.29271826348</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8757,16 +8760,16 @@
         <v>246</v>
       </c>
       <c r="I185" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J185">
-        <v>20566</v>
+        <v>69178</v>
       </c>
       <c r="K185">
-        <v>172.904214</v>
+        <v>411.411035</v>
       </c>
       <c r="L185">
-        <v>118.9444694505826</v>
+        <v>168.1481392447337</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8792,19 +8795,19 @@
         <v>196</v>
       </c>
       <c r="H186" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I186" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J186">
-        <v>35286</v>
+        <v>20566</v>
       </c>
       <c r="K186">
-        <v>500.909508</v>
+        <v>172.904214</v>
       </c>
       <c r="L186">
-        <v>70.44386148884999</v>
+        <v>118.9444694505826</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8833,16 +8836,16 @@
         <v>247</v>
       </c>
       <c r="I187" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J187">
-        <v>64913</v>
+        <v>35286</v>
       </c>
       <c r="K187">
-        <v>807.372281</v>
+        <v>500.909508</v>
       </c>
       <c r="L187">
-        <v>80.4003326936115</v>
+        <v>70.44386148884999</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8871,16 +8874,16 @@
         <v>247</v>
       </c>
       <c r="I188" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J188">
-        <v>28887</v>
+        <v>64913</v>
       </c>
       <c r="K188">
-        <v>547.467005</v>
+        <v>807.372281</v>
       </c>
       <c r="L188">
-        <v>52.76482369928394</v>
+        <v>80.4003326936115</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8909,16 +8912,16 @@
         <v>247</v>
       </c>
       <c r="I189" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J189">
-        <v>26563</v>
+        <v>28887</v>
       </c>
       <c r="K189">
-        <v>443.243407</v>
+        <v>547.467005</v>
       </c>
       <c r="L189">
-        <v>59.92869737146479</v>
+        <v>52.76482369928394</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8947,16 +8950,16 @@
         <v>247</v>
       </c>
       <c r="I190" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J190">
-        <v>46535</v>
+        <v>26563</v>
       </c>
       <c r="K190">
-        <v>455.091603</v>
+        <v>443.243407</v>
       </c>
       <c r="L190">
-        <v>102.254138932113</v>
+        <v>59.92869737146479</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8985,16 +8988,16 @@
         <v>247</v>
       </c>
       <c r="I191" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J191">
-        <v>41420</v>
+        <v>46535</v>
       </c>
       <c r="K191">
-        <v>664.012341</v>
+        <v>455.091603</v>
       </c>
       <c r="L191">
-        <v>62.37835871788413</v>
+        <v>102.254138932113</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9023,16 +9026,16 @@
         <v>247</v>
       </c>
       <c r="I192" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J192">
-        <v>53852</v>
+        <v>41420</v>
       </c>
       <c r="K192">
-        <v>474.963093</v>
+        <v>664.012341</v>
       </c>
       <c r="L192">
-        <v>113.3814411975795</v>
+        <v>62.37835871788413</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9046,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -9061,16 +9064,16 @@
         <v>247</v>
       </c>
       <c r="I193" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J193">
-        <v>54593</v>
+        <v>53852</v>
       </c>
       <c r="K193">
-        <v>612.561438</v>
+        <v>474.963093</v>
       </c>
       <c r="L193">
-        <v>89.1224889673842</v>
+        <v>113.3814411975795</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9084,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -9099,16 +9102,16 @@
         <v>247</v>
       </c>
       <c r="I194" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J194">
-        <v>50689</v>
+        <v>54593</v>
       </c>
       <c r="K194">
-        <v>396.761181</v>
+        <v>612.561438</v>
       </c>
       <c r="L194">
-        <v>127.7569541260137</v>
+        <v>89.1224889673842</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9137,16 +9140,16 @@
         <v>247</v>
       </c>
       <c r="I195" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J195">
-        <v>45739</v>
+        <v>50689</v>
       </c>
       <c r="K195">
-        <v>518.401901</v>
+        <v>396.761181</v>
       </c>
       <c r="L195">
-        <v>88.23077213214155</v>
+        <v>127.7569541260137</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9175,16 +9178,16 @@
         <v>247</v>
       </c>
       <c r="I196" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J196">
-        <v>38563</v>
+        <v>45739</v>
       </c>
       <c r="K196">
-        <v>622.342074</v>
+        <v>518.401901</v>
       </c>
       <c r="L196">
-        <v>61.96431450013132</v>
+        <v>88.23077213214155</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9213,16 +9216,16 @@
         <v>247</v>
       </c>
       <c r="I197" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J197">
-        <v>30715</v>
+        <v>38563</v>
       </c>
       <c r="K197">
-        <v>440.100025</v>
+        <v>622.342074</v>
       </c>
       <c r="L197">
-        <v>69.79095263627853</v>
+        <v>61.96431450013132</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9251,16 +9254,16 @@
         <v>247</v>
       </c>
       <c r="I198" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J198">
-        <v>32861</v>
+        <v>30715</v>
       </c>
       <c r="K198">
-        <v>392.103012</v>
+        <v>440.100025</v>
       </c>
       <c r="L198">
-        <v>83.80705833496633</v>
+        <v>69.79095263627853</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9289,16 +9292,16 @@
         <v>247</v>
       </c>
       <c r="I199" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J199">
-        <v>70354</v>
+        <v>32861</v>
       </c>
       <c r="K199">
-        <v>1031.306018</v>
+        <v>392.103012</v>
       </c>
       <c r="L199">
-        <v>68.21835495194405</v>
+        <v>83.80705833496633</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9327,16 +9330,16 @@
         <v>247</v>
       </c>
       <c r="I200" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J200">
-        <v>62737</v>
+        <v>70354</v>
       </c>
       <c r="K200">
-        <v>787.011713</v>
+        <v>1031.306018</v>
       </c>
       <c r="L200">
-        <v>79.71545907602014</v>
+        <v>68.21835495194405</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9362,19 +9365,19 @@
         <v>211</v>
       </c>
       <c r="H201" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I201" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J201">
-        <v>55504</v>
+        <v>62737</v>
       </c>
       <c r="K201">
-        <v>607.484716</v>
+        <v>787.011713</v>
       </c>
       <c r="L201">
-        <v>91.36690773961793</v>
+        <v>79.71545907602014</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9403,16 +9406,16 @@
         <v>248</v>
       </c>
       <c r="I202" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J202">
-        <v>83895</v>
+        <v>55504</v>
       </c>
       <c r="K202">
-        <v>545.864268</v>
+        <v>607.484716</v>
       </c>
       <c r="L202">
-        <v>153.692052984864</v>
+        <v>91.36690773961793</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9426,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -9441,16 +9444,16 @@
         <v>248</v>
       </c>
       <c r="I203" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J203">
-        <v>81441</v>
+        <v>83895</v>
       </c>
       <c r="K203">
-        <v>752.191724</v>
+        <v>545.864268</v>
       </c>
       <c r="L203">
-        <v>108.2715980533708</v>
+        <v>153.692052984864</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9479,16 +9482,16 @@
         <v>248</v>
       </c>
       <c r="I204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J204">
-        <v>24303</v>
+        <v>81441</v>
       </c>
       <c r="K204">
-        <v>631.755526</v>
+        <v>752.191724</v>
       </c>
       <c r="L204">
-        <v>38.46899472945805</v>
+        <v>108.2715980533708</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9502,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -9517,16 +9520,16 @@
         <v>248</v>
       </c>
       <c r="I205" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J205">
-        <v>53295</v>
+        <v>24303</v>
       </c>
       <c r="K205">
-        <v>493.176247</v>
+        <v>631.755526</v>
       </c>
       <c r="L205">
-        <v>108.0648152140223</v>
+        <v>38.46899472945805</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9555,16 +9558,16 @@
         <v>248</v>
       </c>
       <c r="I206" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J206">
-        <v>28382</v>
+        <v>53295</v>
       </c>
       <c r="K206">
-        <v>495.794067</v>
+        <v>493.176247</v>
       </c>
       <c r="L206">
-        <v>57.24554182694566</v>
+        <v>108.0648152140223</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9578,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -9593,16 +9596,16 @@
         <v>248</v>
       </c>
       <c r="I207" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J207">
-        <v>92220</v>
+        <v>28382</v>
       </c>
       <c r="K207">
-        <v>821.055309</v>
+        <v>495.794067</v>
       </c>
       <c r="L207">
-        <v>112.3188645017336</v>
+        <v>57.24554182694566</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9616,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -9631,16 +9634,16 @@
         <v>248</v>
       </c>
       <c r="I208" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J208">
-        <v>28902</v>
+        <v>92220</v>
       </c>
       <c r="K208">
-        <v>597.222769</v>
+        <v>821.055309</v>
       </c>
       <c r="L208">
-        <v>48.39400220523073</v>
+        <v>112.3188645017336</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9669,16 +9672,16 @@
         <v>248</v>
       </c>
       <c r="I209" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J209">
-        <v>22441</v>
+        <v>28902</v>
       </c>
       <c r="K209">
-        <v>533.202165</v>
+        <v>597.222769</v>
       </c>
       <c r="L209">
-        <v>42.08722595865679</v>
+        <v>48.39400220523073</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9707,16 +9710,16 @@
         <v>248</v>
       </c>
       <c r="I210" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J210">
-        <v>25697</v>
+        <v>22441</v>
       </c>
       <c r="K210">
-        <v>789.09174</v>
+        <v>533.202165</v>
       </c>
       <c r="L210">
-        <v>32.56528828954666</v>
+        <v>42.08722595865679</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9742,19 +9745,19 @@
         <v>221</v>
       </c>
       <c r="H211" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I211" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J211">
-        <v>42971</v>
+        <v>25697</v>
       </c>
       <c r="K211">
-        <v>60.698855</v>
+        <v>789.09174</v>
       </c>
       <c r="L211">
-        <v>707.9375714747831</v>
+        <v>32.56528828954666</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9768,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -9783,16 +9786,16 @@
         <v>250</v>
       </c>
       <c r="I212" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J212">
-        <v>106474</v>
+        <v>42971</v>
       </c>
       <c r="K212">
-        <v>864.15274</v>
+        <v>60.698855</v>
       </c>
       <c r="L212">
-        <v>123.2120145797374</v>
+        <v>707.9375714747831</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9806,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -9821,16 +9824,16 @@
         <v>250</v>
       </c>
       <c r="I213" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J213">
-        <v>52257</v>
+        <v>106474</v>
       </c>
       <c r="K213">
-        <v>577.23713</v>
+        <v>864.15274</v>
       </c>
       <c r="L213">
-        <v>90.52951947148654</v>
+        <v>123.2120145797374</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9844,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -9859,16 +9862,16 @@
         <v>250</v>
       </c>
       <c r="I214" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J214">
-        <v>66740</v>
+        <v>52257</v>
       </c>
       <c r="K214">
-        <v>624.53463</v>
+        <v>577.23713</v>
       </c>
       <c r="L214">
-        <v>106.8635697591341</v>
+        <v>90.52951947148654</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9897,16 +9900,16 @@
         <v>250</v>
       </c>
       <c r="I215" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J215">
-        <v>52805</v>
+        <v>66740</v>
       </c>
       <c r="K215">
-        <v>366.115806</v>
+        <v>624.53463</v>
       </c>
       <c r="L215">
-        <v>144.2303203921221</v>
+        <v>106.8635697591341</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9920,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -9935,16 +9938,16 @@
         <v>250</v>
       </c>
       <c r="I216" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J216">
-        <v>79238</v>
+        <v>52805</v>
       </c>
       <c r="K216">
-        <v>542.648184</v>
+        <v>366.115806</v>
       </c>
       <c r="L216">
-        <v>146.0209438386327</v>
+        <v>144.2303203921221</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9973,16 +9976,16 @@
         <v>250</v>
       </c>
       <c r="I217" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J217">
-        <v>31717</v>
+        <v>79238</v>
       </c>
       <c r="K217">
-        <v>479.099966</v>
+        <v>542.648184</v>
       </c>
       <c r="L217">
-        <v>66.20121530127598</v>
+        <v>146.0209438386327</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10011,16 +10014,16 @@
         <v>250</v>
       </c>
       <c r="I218" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J218">
-        <v>62743</v>
+        <v>31717</v>
       </c>
       <c r="K218">
-        <v>515.88699</v>
+        <v>479.099966</v>
       </c>
       <c r="L218">
-        <v>121.6215977844295</v>
+        <v>66.20121530127598</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10046,19 +10049,19 @@
         <v>229</v>
       </c>
       <c r="H219" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I219" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J219">
-        <v>39163</v>
+        <v>62743</v>
       </c>
       <c r="K219">
-        <v>842.18902</v>
+        <v>515.88699</v>
       </c>
       <c r="L219">
-        <v>46.50143740890852</v>
+        <v>121.6215977844295</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10087,16 +10090,16 @@
         <v>251</v>
       </c>
       <c r="I220" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J220">
-        <v>29756</v>
+        <v>39163</v>
       </c>
       <c r="K220">
-        <v>780.1586600000001</v>
+        <v>842.18902</v>
       </c>
       <c r="L220">
-        <v>38.14095968632842</v>
+        <v>46.50143740890852</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10125,16 +10128,16 @@
         <v>251</v>
       </c>
       <c r="I221" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J221">
-        <v>32949</v>
+        <v>29756</v>
       </c>
       <c r="K221">
-        <v>584.207531</v>
+        <v>780.1586600000001</v>
       </c>
       <c r="L221">
-        <v>56.39947835592006</v>
+        <v>38.14095968632842</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10163,16 +10166,16 @@
         <v>251</v>
       </c>
       <c r="I222" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J222">
-        <v>48738</v>
+        <v>32949</v>
       </c>
       <c r="K222">
-        <v>846.016198</v>
+        <v>584.207531</v>
       </c>
       <c r="L222">
-        <v>57.60882606647207</v>
+        <v>56.39947835592006</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10186,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -10201,16 +10204,16 @@
         <v>251</v>
       </c>
       <c r="I223" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J223">
-        <v>51023</v>
+        <v>48738</v>
       </c>
       <c r="K223">
-        <v>537.221176</v>
+        <v>846.016198</v>
       </c>
       <c r="L223">
-        <v>94.97577958468264</v>
+        <v>57.60882606647207</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10224,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -10239,16 +10242,16 @@
         <v>251</v>
       </c>
       <c r="I224" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J224">
-        <v>37392</v>
+        <v>51023</v>
       </c>
       <c r="K224">
-        <v>81.797648</v>
+        <v>537.221176</v>
       </c>
       <c r="L224">
-        <v>457.1280582541934</v>
+        <v>94.97577958468264</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10256,37 +10259,37 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G225" t="s">
         <v>235</v>
       </c>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I225" t="s">
-        <v>252</v>
+        <v>454</v>
       </c>
       <c r="J225">
-        <v>340575</v>
+        <v>37392</v>
       </c>
       <c r="K225">
-        <v>464.94968</v>
+        <v>81.797648</v>
       </c>
       <c r="L225">
-        <v>732.4986222164945</v>
+        <v>457.1280582541934</v>
       </c>
     </row>
   </sheetData>
